--- a/tests/demo/demo_plan.xlsx
+++ b/tests/demo/demo_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optum\hm-automation\tests\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB48D79-4BAA-442B-B953-CC356F2F158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68CE187-EC14-4601-B1B5-77B893AA5025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t>Test ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>App Type</t>
   </si>
@@ -440,104 +437,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
+        <v>30009</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>30009</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
         <v>30009</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3">
-        <v>30009</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3">
-        <v>30009</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
